--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed4/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.803999999999999</v>
+        <v>7.098000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.93</v>
+        <v>-21.794</v>
       </c>
       <c r="B9" t="n">
-        <v>6.279999999999999</v>
+        <v>5.518000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.932</v>
+        <v>-11.115</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.842</v>
+        <v>-21.797</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.07</v>
+        <v>-20.511</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.632000000000001</v>
+        <v>7.463000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.907999999999999</v>
+        <v>5.635000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.672</v>
+        <v>6.122</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-21.907</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.872</v>
+        <v>-12.409</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.325999999999999</v>
+        <v>7.447</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.01</v>
+        <v>8.030999999999999</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.94</v>
+        <v>-12.537</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.534</v>
+        <v>-13.478</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.836</v>
+        <v>5.358999999999999</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.12</v>
+        <v>-11.584</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.662</v>
+        <v>5.01</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.723</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.182</v>
+        <v>-10.68</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.412</v>
+        <v>5.242</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.614000000000001</v>
+        <v>5.388</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.752</v>
+        <v>-21.506</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.49</v>
+        <v>-20.574</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.544</v>
+        <v>7.694</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.658</v>
+        <v>-21.988</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.202</v>
+        <v>-11.12</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.51</v>
+        <v>5.309</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
